--- a/Licenses.xlsx
+++ b/Licenses.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Library dependency</t>
   </si>
@@ -223,12 +223,6 @@
 jsoup implements the WHATWG HTML5 specification, and parses HTML to the same DOM as modern browsers do.</t>
   </si>
   <si>
-    <t>jfreechart-1.0.15.jar</t>
-  </si>
-  <si>
-    <t>jcommon-1.0.18.jar</t>
-  </si>
-  <si>
     <t>MIT license</t>
   </si>
   <si>
@@ -302,12 +296,24 @@
   <si>
     <t>Digg related auxiliary library</t>
   </si>
+  <si>
+    <t>jfreechart-1.0.16.jar</t>
+  </si>
+  <si>
+    <t>jcommon-1.0.20.jar</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>NO LONGER USED AS OF DEC 2013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,22 +377,38 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -431,7 +459,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,7 +488,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,19 +521,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -519,6 +537,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -528,18 +575,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -847,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,123 +916,126 @@
     <col min="3" max="3" width="47.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="47" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
@@ -983,114 +1044,114 @@
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -1099,259 +1160,261 @@
       <c r="D17" s="11"/>
       <c r="E17" s="8"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="193.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="F22" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="B26" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>30</v>
-      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="20" t="s">
+      <c r="C31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="E32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>86</v>
+      <c r="C33" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -1360,32 +1423,32 @@
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="14" t="s">
+      <c r="E35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1394,9 +1457,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="37"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1405,9 +1468,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="37"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -1416,9 +1479,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="37"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1427,9 +1490,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="37"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -1438,9 +1501,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="37"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -1449,9 +1512,9 @@
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="37"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1460,7 +1523,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
